--- a/IFD04D.xlsx
+++ b/IFD04D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="345">
   <si>
     <t/>
   </si>
@@ -85,12 +85,36 @@
     <t>4</t>
   </si>
   <si>
+    <t>20138877</t>
+  </si>
+  <si>
+    <t>SUKSES ISI2 ACEH 140</t>
+  </si>
+  <si>
     <t>20131022</t>
   </si>
   <si>
     <t>SDAAP MIE GRG BKED87</t>
   </si>
   <si>
+    <t>20096589</t>
+  </si>
+  <si>
+    <t>SEDAAP MIE GRNG 5'S</t>
+  </si>
+  <si>
+    <t>20096590</t>
+  </si>
+  <si>
+    <t>SEDAAP MIE SOTO 5'S</t>
+  </si>
+  <si>
+    <t>20140674</t>
+  </si>
+  <si>
+    <t>SEDAAP AYM BWG 5'S</t>
+  </si>
+  <si>
     <t>10023790</t>
   </si>
   <si>
@@ -199,27 +223,15 @@
     <t>TASTY BAKMI YKNKU115</t>
   </si>
   <si>
-    <t>20096589</t>
-  </si>
-  <si>
-    <t>SEDAAP MIE GRNG 5'S</t>
+    <t>20135313</t>
+  </si>
+  <si>
+    <t>WOW SPAGHETI BOLOG76</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>20096590</t>
-  </si>
-  <si>
-    <t>SEDAAP MIE SOTO 5'S</t>
-  </si>
-  <si>
-    <t>20135313</t>
-  </si>
-  <si>
-    <t>WOW SPAGHETI BOLOG76</t>
-  </si>
-  <si>
     <t>20135312</t>
   </si>
   <si>
@@ -244,6 +256,18 @@
     <t>I/POP SPGTI BGLN 84G</t>
   </si>
   <si>
+    <t>20140633</t>
+  </si>
+  <si>
+    <t>INDOMIE GRG SPC 5S</t>
+  </si>
+  <si>
+    <t>20140657</t>
+  </si>
+  <si>
+    <t>INDOMIE AYAM BWG 5S</t>
+  </si>
+  <si>
     <t>20103442</t>
   </si>
   <si>
@@ -388,6 +412,12 @@
     <t>INDOMI NYEMK B/LDS80</t>
   </si>
   <si>
+    <t>20140632</t>
+  </si>
+  <si>
+    <t>INDOMI NYMEK J/RD 84</t>
+  </si>
+  <si>
     <t>10003517</t>
   </si>
   <si>
@@ -475,21 +505,15 @@
     <t>INDOMIE GRG RNDNG120</t>
   </si>
   <si>
-    <t>20044208</t>
-  </si>
-  <si>
-    <t>BD MIE KRNG PPH 140G</t>
+    <t>20073671</t>
+  </si>
+  <si>
+    <t>BD MIE URAI PPH 140G</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>20073671</t>
-  </si>
-  <si>
-    <t>BD MIE URAI PPH 140G</t>
-  </si>
-  <si>
     <t>20085013</t>
   </si>
   <si>
@@ -880,6 +904,12 @@
     <t>SEDAAP MIE BSO CUP77</t>
   </si>
   <si>
+    <t>20140678</t>
+  </si>
+  <si>
+    <t>SEDAAP SPC LAKSA CUP</t>
+  </si>
+  <si>
     <t>20016246</t>
   </si>
   <si>
@@ -940,12 +970,6 @@
     <t>POP MIE PD.DWR AYM75</t>
   </si>
   <si>
-    <t>20126125</t>
-  </si>
-  <si>
-    <t>POP MI PD PGST/JTR75</t>
-  </si>
-  <si>
     <t>20131530</t>
   </si>
   <si>
@@ -962,12 +986,6 @@
   </si>
   <si>
     <t>POP MI SPCY RMYEON71</t>
-  </si>
-  <si>
-    <t>20135992</t>
-  </si>
-  <si>
-    <t>POP MI FIERY CHKIN74</t>
   </si>
   <si>
     <t>10014292</t>
@@ -1420,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F155"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1602,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -1622,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -1642,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -1662,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -1682,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
@@ -1705,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -1725,7 +1743,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
@@ -1742,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
@@ -1762,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
@@ -1782,10 +1800,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
@@ -1802,10 +1820,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
@@ -1825,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -1845,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -1862,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>16</v>
@@ -1882,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>16</v>
@@ -1902,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>16</v>
@@ -1922,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>16</v>
@@ -1945,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>16</v>
@@ -1965,7 +1983,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>16</v>
@@ -1982,10 +2000,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>16</v>
@@ -1993,19 +2011,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
@@ -2013,19 +2031,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>16</v>
@@ -2033,19 +2051,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
@@ -2053,19 +2071,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>16</v>
@@ -2082,13 +2100,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2102,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,50 +2140,50 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>6</v>
@@ -2173,19 +2191,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>6</v>
@@ -2193,22 +2211,22 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2222,30 +2240,30 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>6</v>
@@ -2253,19 +2271,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
@@ -2273,16 +2291,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>9</v>
@@ -2293,19 +2311,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>6</v>
@@ -2322,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>6</v>
@@ -2333,19 +2351,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -2353,19 +2371,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>6</v>
@@ -2373,19 +2391,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
@@ -2393,19 +2411,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>6</v>
@@ -2422,10 +2440,10 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>6</v>
@@ -2442,10 +2460,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>6</v>
@@ -2453,19 +2471,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>6</v>
@@ -2473,19 +2491,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>6</v>
@@ -2493,19 +2511,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
@@ -2513,19 +2531,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -2542,10 +2560,10 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
@@ -2562,10 +2580,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>6</v>
@@ -2573,19 +2591,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
@@ -2593,19 +2611,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>6</v>
@@ -2613,19 +2631,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>6</v>
@@ -2633,19 +2651,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>6</v>
@@ -2653,19 +2671,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>6</v>
@@ -2673,19 +2691,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>6</v>
@@ -2702,10 +2720,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>6</v>
@@ -2722,10 +2740,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>6</v>
@@ -2733,19 +2751,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>6</v>
@@ -2753,19 +2771,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>6</v>
@@ -2773,19 +2791,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>6</v>
@@ -2793,19 +2811,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>6</v>
@@ -2813,96 +2831,96 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
@@ -2913,79 +2931,79 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>6</v>
@@ -2993,39 +3011,39 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>179</v>
@@ -3033,19 +3051,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>16</v>
@@ -3053,19 +3071,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>6</v>
@@ -3073,22 +3091,22 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,30 +3120,30 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>16</v>
@@ -3133,59 +3151,59 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>16</v>
@@ -3202,10 +3220,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>16</v>
@@ -3222,13 +3240,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3242,30 +3260,30 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>16</v>
@@ -3273,19 +3291,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>16</v>
@@ -3293,39 +3311,39 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>16</v>
@@ -3342,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>16</v>
@@ -3353,19 +3371,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>16</v>
@@ -3373,59 +3391,59 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>16</v>
@@ -3442,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>16</v>
@@ -3462,50 +3480,50 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>16</v>
@@ -3513,19 +3531,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>16</v>
@@ -3533,19 +3551,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>16</v>
@@ -3562,10 +3580,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>16</v>
@@ -3573,16 +3591,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>5</v>
@@ -3593,16 +3611,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>23</v>
@@ -3613,99 +3631,99 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>6</v>
@@ -3713,82 +3731,82 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>163</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3802,70 +3820,70 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>16</v>
@@ -3873,19 +3891,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>16</v>
@@ -3902,13 +3920,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,13 +3940,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3942,13 +3960,13 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3962,10 +3980,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>16</v>
@@ -3973,159 +3991,159 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E131" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>6</v>
@@ -4142,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>6</v>
@@ -4162,10 +4180,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>6</v>
@@ -4173,19 +4191,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>6</v>
@@ -4193,19 +4211,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>6</v>
@@ -4213,19 +4231,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>6</v>
@@ -4233,19 +4251,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>6</v>
@@ -4253,19 +4271,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>6</v>
@@ -4282,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>6</v>
@@ -4302,10 +4320,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>6</v>
@@ -4313,19 +4331,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>6</v>
@@ -4333,19 +4351,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>6</v>
@@ -4353,19 +4371,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>6</v>
@@ -4382,73 +4400,73 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4462,12 +4480,72 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/IFD04D.xlsx
+++ b/IFD04D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="351">
   <si>
     <t/>
   </si>
@@ -541,15 +541,21 @@
     <t>3AYAM MIE TLR KNG200</t>
   </si>
   <si>
+    <t>20140909</t>
+  </si>
+  <si>
+    <t>B.FARM TERI KB 60G</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>20020770</t>
   </si>
   <si>
     <t>MERBABU KR.BAWANG200</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>RT,(E-4B)</t>
   </si>
   <si>
@@ -830,6 +836,18 @@
   </si>
   <si>
     <t>SUPER BUBUR KARI 46G</t>
+  </si>
+  <si>
+    <t>20140905</t>
+  </si>
+  <si>
+    <t>NASINDO NASI GR. 85G</t>
+  </si>
+  <si>
+    <t>20140904</t>
+  </si>
+  <si>
+    <t>NASINDO SOTO 65G</t>
   </si>
   <si>
     <t>20045610</t>
@@ -1438,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F158"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3043,18 +3061,18 @@
         <v>178</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
@@ -3066,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,53 +3098,53 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3140,13 +3158,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,13 +3178,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,13 +3198,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3200,30 +3218,30 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E89" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>16</v>
@@ -3240,10 +3258,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>16</v>
@@ -3260,13 +3278,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,13 +3298,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,10 +3318,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>16</v>
@@ -3320,13 +3338,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3340,30 +3358,30 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>16</v>
@@ -3380,10 +3398,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>16</v>
@@ -3400,10 +3418,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>16</v>
@@ -3420,10 +3438,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>16</v>
@@ -3440,10 +3458,10 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>16</v>
@@ -3451,19 +3469,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>16</v>
@@ -3480,13 +3498,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3500,10 +3518,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>6</v>
@@ -3520,13 +3538,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3540,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>16</v>
@@ -3560,10 +3578,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>16</v>
@@ -3571,19 +3589,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>16</v>
@@ -3600,10 +3618,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>16</v>
@@ -3620,10 +3638,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>16</v>
@@ -3640,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>16</v>
@@ -3660,10 +3678,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>16</v>
@@ -3671,19 +3689,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>16</v>
@@ -3700,10 +3718,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>16</v>
@@ -3720,13 +3738,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3740,33 +3758,33 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3780,13 +3798,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3800,33 +3818,33 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,10 +3858,10 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>171</v>
@@ -3860,13 +3878,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,13 +3898,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>16</v>
@@ -3911,19 +3929,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>16</v>
@@ -3931,19 +3949,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>16</v>
@@ -3951,19 +3969,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>16</v>
@@ -3980,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>16</v>
@@ -4000,13 +4018,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4020,13 +4038,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4040,13 +4058,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4060,70 +4078,70 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>16</v>
@@ -4140,70 +4158,70 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>6</v>
@@ -4220,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>6</v>
@@ -4240,10 +4258,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>6</v>
@@ -4260,10 +4278,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>6</v>
@@ -4280,10 +4298,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>6</v>
@@ -4291,19 +4309,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>6</v>
@@ -4311,19 +4329,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>6</v>
@@ -4331,19 +4349,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>6</v>
@@ -4360,10 +4378,10 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>6</v>
@@ -4380,10 +4398,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>6</v>
@@ -4391,19 +4409,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>6</v>
@@ -4411,19 +4429,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>6</v>
@@ -4431,19 +4449,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E150" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>6</v>
@@ -4460,73 +4478,73 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>187</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4540,12 +4558,72 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/IFD04D.xlsx
+++ b/IFD04D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="353">
   <si>
     <t/>
   </si>
@@ -52,6 +52,15 @@
     <t>6</t>
   </si>
   <si>
+    <t>20141070</t>
+  </si>
+  <si>
+    <t>KOBE MI CH/OIL LV.15</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>20062365</t>
   </si>
   <si>
@@ -227,9 +236,6 @@
   </si>
   <si>
     <t>WOW SPAGHETI BOLOG76</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>20135312</t>
@@ -1456,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F159"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1558,73 +1564,73 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,41 +1644,41 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1681,18 +1687,18 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1701,18 +1707,18 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1721,158 +1727,158 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1881,18 +1887,18 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1901,18 +1907,18 @@
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1921,18 +1927,18 @@
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1941,18 +1947,18 @@
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1961,38 +1967,38 @@
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -2001,18 +2007,18 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -2021,18 +2027,18 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -2041,18 +2047,18 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -2061,18 +2067,18 @@
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -2081,30 +2087,30 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,13 +2124,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,13 +2144,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,13 +2164,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,10 +2184,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>6</v>
@@ -2198,10 +2204,10 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>6</v>
@@ -2218,10 +2224,10 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>6</v>
@@ -2238,33 +2244,33 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,13 +2284,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2298,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
@@ -2318,10 +2324,10 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>6</v>
@@ -2338,10 +2344,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>6</v>
@@ -2349,19 +2355,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>6</v>
@@ -2378,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -2398,10 +2404,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>6</v>
@@ -2418,10 +2424,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
@@ -2438,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>6</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>6</v>
@@ -2478,10 +2484,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>6</v>
@@ -2498,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>6</v>
@@ -2518,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>6</v>
@@ -2538,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
@@ -2558,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -2569,19 +2575,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
@@ -2598,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>6</v>
@@ -2618,10 +2624,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
@@ -2638,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>6</v>
@@ -2658,10 +2664,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>6</v>
@@ -2678,10 +2684,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>6</v>
@@ -2698,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>6</v>
@@ -2709,16 +2715,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>4</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>6</v>
@@ -2758,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>6</v>
@@ -2778,10 +2784,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>6</v>
@@ -2798,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>6</v>
@@ -2818,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>6</v>
@@ -2838,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>6</v>
@@ -2858,10 +2864,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>6</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>6</v>
@@ -2898,10 +2904,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>6</v>
@@ -2918,10 +2924,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>6</v>
@@ -2938,10 +2944,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>6</v>
@@ -2958,33 +2964,33 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2998,33 +3004,33 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>6</v>
@@ -3058,53 +3064,53 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,53 +3124,53 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,13 +3184,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,13 +3204,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3218,13 +3224,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,33 +3244,33 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3278,13 +3284,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,13 +3304,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,13 +3324,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,13 +3364,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3378,33 +3384,33 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3418,13 +3424,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,13 +3444,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3458,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3478,33 +3484,33 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,13 +3524,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3538,10 +3544,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>6</v>
@@ -3558,13 +3564,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3578,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3598,33 +3604,33 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,13 +3644,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3678,13 +3684,13 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3698,33 +3704,33 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,13 +3744,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,13 +3764,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3778,33 +3784,33 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,13 +3824,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3838,33 +3844,33 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3878,13 +3884,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3898,13 +3904,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3918,13 +3924,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3938,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,13 +3964,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3978,33 +3984,33 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4018,13 +4024,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,13 +4044,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4058,13 +4064,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4078,13 +4084,13 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4098,13 +4104,13 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4118,13 +4124,13 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4138,33 +4144,33 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4178,13 +4184,13 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4198,13 +4204,13 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4218,30 +4224,30 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>6</v>
@@ -4258,10 +4264,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>6</v>
@@ -4278,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>6</v>
@@ -4298,10 +4304,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>6</v>
@@ -4318,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>6</v>
@@ -4338,10 +4344,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>6</v>
@@ -4358,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>6</v>
@@ -4369,19 +4375,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E146" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>6</v>
@@ -4398,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>6</v>
@@ -4418,10 +4424,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>6</v>
@@ -4438,10 +4444,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>6</v>
@@ -4458,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>6</v>
@@ -4469,19 +4475,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>6</v>
@@ -4498,10 +4504,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>6</v>
@@ -4518,10 +4524,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>6</v>
@@ -4538,33 +4544,33 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E155" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4578,13 +4584,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4598,13 +4604,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4618,13 +4624,33 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>16</v>
+      <c r="F159" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/IFD04D.xlsx
+++ b/IFD04D.xlsx
@@ -274,21 +274,15 @@
     <t>INDOMIE AYAM BWG 5S</t>
   </si>
   <si>
-    <t>20103442</t>
-  </si>
-  <si>
-    <t>ABC MI GRNG SP PDS80</t>
+    <t>10007606</t>
+  </si>
+  <si>
+    <t>ABC MIE GULAI PDS.70</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>10007606</t>
-  </si>
-  <si>
-    <t>ABC MIE GULAI PDS.70</t>
-  </si>
-  <si>
     <t>10003435</t>
   </si>
   <si>
@@ -613,6 +607,12 @@
     <t>PALDO HOT&amp;SPICY 120</t>
   </si>
   <si>
+    <t>20141198</t>
+  </si>
+  <si>
+    <t>WONHAE TPOKI CARB 80</t>
+  </si>
+  <si>
     <t>20127764</t>
   </si>
   <si>
@@ -637,7 +637,7 @@
     <t>20128247</t>
   </si>
   <si>
-    <t>WNHAE FRIED ROSE 120</t>
+    <t>WNHAE FRIED ROSE 97G</t>
   </si>
   <si>
     <t>20117989</t>
@@ -2267,7 +2267,7 @@
         <v>89</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>19</v>
@@ -2287,10 +2287,10 @@
         <v>89</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
@@ -2327,7 +2327,7 @@
         <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>6</v>
@@ -2344,10 +2344,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>6</v>
@@ -2355,19 +2355,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>6</v>
@@ -2384,10 +2384,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -2404,10 +2404,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>6</v>
@@ -2424,10 +2424,10 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
@@ -2444,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>6</v>
@@ -2455,19 +2455,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>6</v>
@@ -2484,10 +2484,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>6</v>
@@ -2504,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>6</v>
@@ -2524,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>6</v>
@@ -2544,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
@@ -2564,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -2575,19 +2575,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>6</v>
@@ -2624,10 +2624,10 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
@@ -2644,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>6</v>
@@ -2664,10 +2664,10 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>6</v>
@@ -2684,10 +2684,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>6</v>
@@ -2704,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>6</v>
@@ -2715,16 +2715,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>4</v>
@@ -2735,19 +2735,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>6</v>
@@ -2764,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>6</v>
@@ -2784,10 +2784,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>6</v>
@@ -2804,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>6</v>
@@ -2824,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>6</v>
@@ -2844,10 +2844,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>6</v>
@@ -2864,10 +2864,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>6</v>
@@ -2875,19 +2875,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>6</v>
@@ -2904,10 +2904,10 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>6</v>
@@ -2924,10 +2924,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>6</v>
@@ -2944,10 +2944,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>6</v>
@@ -2964,30 +2964,30 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>19</v>
@@ -3004,33 +3004,33 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3044,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>6</v>
@@ -3064,53 +3064,53 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,53 +3124,53 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,13 +3184,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3204,13 +3204,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,13 +3224,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3244,13 +3244,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,7 +3390,7 @@
         <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>89</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
         <v>5</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>15</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,7 +4150,7 @@
         <v>89</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4590,7 +4590,7 @@
         <v>18</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>5</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
